--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Omg-Rtn4r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Omg-Rtn4r.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.084811666666667</v>
+        <v>1.10087</v>
       </c>
       <c r="H2">
-        <v>15.254435</v>
+        <v>3.30261</v>
       </c>
       <c r="I2">
-        <v>0.5108142255059609</v>
+        <v>0.1843884439613191</v>
       </c>
       <c r="J2">
-        <v>0.5108142255059609</v>
+        <v>0.1843884439613191</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,7 +552,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.04133166666666667</v>
+        <v>0.04133166666666666</v>
       </c>
       <c r="N2">
         <v>0.123995</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.2101637408694445</v>
+        <v>0.04550079188333333</v>
       </c>
       <c r="R2">
-        <v>1.891473667825</v>
+        <v>0.40950712695</v>
       </c>
       <c r="S2">
-        <v>0.5108142255059609</v>
+        <v>0.1843884439613191</v>
       </c>
       <c r="T2">
-        <v>0.5108142255059609</v>
+        <v>0.1843884439613191</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>8.06705</v>
       </c>
       <c r="I3">
-        <v>0.2701354653822224</v>
+        <v>0.4503925067925547</v>
       </c>
       <c r="J3">
-        <v>0.2701354653822224</v>
+        <v>0.4503925067925547</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,7 +614,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.04133166666666667</v>
+        <v>0.04133166666666666</v>
       </c>
       <c r="N3">
         <v>0.123995</v>
@@ -632,10 +632,10 @@
         <v>1.00027386475</v>
       </c>
       <c r="S3">
-        <v>0.2701354653822224</v>
+        <v>0.4503925067925547</v>
       </c>
       <c r="T3">
-        <v>0.2701354653822224</v>
+        <v>0.4503925067925547</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,13 +661,13 @@
         <v>2.180498333333333</v>
       </c>
       <c r="H4">
-        <v>6.541495</v>
+        <v>6.541494999999999</v>
       </c>
       <c r="I4">
-        <v>0.2190503091118167</v>
+        <v>0.3652190492461261</v>
       </c>
       <c r="J4">
-        <v>0.2190503091118167</v>
+        <v>0.3652190492461262</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,7 +676,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.04133166666666667</v>
+        <v>0.04133166666666666</v>
       </c>
       <c r="N4">
         <v>0.123995</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.09012363028055556</v>
+        <v>0.09012363028055553</v>
       </c>
       <c r="R4">
-        <v>0.8111126725250001</v>
+        <v>0.8111126725249999</v>
       </c>
       <c r="S4">
-        <v>0.2190503091118167</v>
+        <v>0.3652190492461261</v>
       </c>
       <c r="T4">
-        <v>0.2190503091118167</v>
+        <v>0.3652190492461262</v>
       </c>
     </row>
   </sheetData>
